--- a/journal_de_travail.xlsx
+++ b/journal_de_travail.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\TB\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\TB\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C367BEB3-E56F-4D3B-9D76-D1776801E834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8877E51C-A6B6-4803-B096-D14F28C71E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="2220" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.6597222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
       </c>
       <c r="I7" s="3">
         <f>SUM(I1:I5)</f>
-        <v>4.4784722222222229</v>
+        <v>4.9506944444444452</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -918,15 +918,39 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45514</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.28472222222222215</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45520</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.75</v>
+      </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1875</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">

--- a/journal_de_travail.xlsx
+++ b/journal_de_travail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\TB\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\TB2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8877E51C-A6B6-4803-B096-D14F28C71E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8740E39-CEE2-4FA8-B856-9B6F8ECF476C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="2220" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" si="0"/>
-        <v>0.1875</v>
+        <v>0.46527777777777779</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
       </c>
       <c r="I7" s="3">
         <f>SUM(I1:I5)</f>
-        <v>4.9506944444444452</v>
+        <v>5.2284722222222229</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -954,9 +954,21 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45521</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.65277777777777779</v>
+      </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">

--- a/journal_de_travail.xlsx
+++ b/journal_de_travail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\TB2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8740E39-CEE2-4FA8-B856-9B6F8ECF476C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF815AF6-46A5-4D7F-9B56-CB8AA9C9E512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" si="0"/>
-        <v>0.46527777777777779</v>
+        <v>0.93124999999999991</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
       </c>
       <c r="I7" s="3">
         <f>SUM(I1:I5)</f>
-        <v>5.2284722222222229</v>
+        <v>5.6944444444444455</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -972,15 +972,39 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45523</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.22916666666666663</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45527</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.59097222222222223</v>
+      </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.23680555555555555</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">

--- a/journal_de_travail.xlsx
+++ b/journal_de_travail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\TB2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF815AF6-46A5-4D7F-9B56-CB8AA9C9E512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0880C531-87A3-4D6A-95E0-6ED78DDC359E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -395,7 +395,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" si="0"/>
-        <v>0.93124999999999991</v>
+        <v>1.179861111111111</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
       </c>
       <c r="I7" s="3">
         <f>SUM(I1:I5)</f>
-        <v>5.6944444444444455</v>
+        <v>5.9430555555555564</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1008,9 +1008,21 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45528</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.60277777777777775</v>
+      </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.24861111111111106</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">

--- a/journal_de_travail.xlsx
+++ b/journal_de_travail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\TB2\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\TB\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0880C531-87A3-4D6A-95E0-6ED78DDC359E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4963FECF-A1D5-417D-A5E2-AFF34F705290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +468,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D37" si="1">C3-B3</f>
+        <f t="shared" ref="D3:D38" si="1">C3-B3</f>
         <v>0.16666666666666669</v>
       </c>
       <c r="E3" t="s">
@@ -479,7 +479,7 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" si="0"/>
-        <v>1.179861111111111</v>
+        <v>2.2215277777777782</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>0.6597222222222221</v>
+        <v>0.84999999999999987</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
       </c>
       <c r="I7" s="3">
         <f>SUM(I1:I5)</f>
-        <v>5.9430555555555564</v>
+        <v>7.1750000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1025,34 +1025,112 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45533</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.75</v>
+      </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45534</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.75</v>
+      </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.75</v>
+      </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.75</v>
+      </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.75</v>
+      </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.7319444444444444</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19027777777777777</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/journal_de_travail.xlsx
+++ b/journal_de_travail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\TB\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\TB2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4963FECF-A1D5-417D-A5E2-AFF34F705290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EA246B-E655-48A1-8EB6-EF83C9241B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3255" windowWidth="10455" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +468,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D38" si="1">C3-B3</f>
+        <f t="shared" ref="D3:D39" si="1">C3-B3</f>
         <v>0.16666666666666669</v>
       </c>
       <c r="E3" t="s">
@@ -529,7 +529,7 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>0.84999999999999987</v>
+        <v>1.0597222222222222</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
       </c>
       <c r="I7" s="3">
         <f>SUM(I1:I5)</f>
-        <v>7.1750000000000007</v>
+        <v>7.3847222222222229</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1130,6 +1130,35 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="E38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.46944444444444444</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20972222222222225</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.40555555555555556</v>
+      </c>
+      <c r="E40" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1155,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439C75DC-391B-42D8-BD8F-042837A29DC7}">
   <dimension ref="B2:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/journal_de_travail.xlsx
+++ b/journal_de_travail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\TB2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EA246B-E655-48A1-8EB6-EF83C9241B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7395CF-5968-4E64-8453-1E58ED5DBA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3255" windowWidth="10455" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +468,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D39" si="1">C3-B3</f>
+        <f t="shared" ref="D3:D41" si="1">C3-B3</f>
         <v>0.16666666666666669</v>
       </c>
       <c r="E3" t="s">
@@ -529,7 +529,7 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>1.0597222222222222</v>
+        <v>1.7743055555555556</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
       </c>
       <c r="I7" s="3">
         <f>SUM(I1:I5)</f>
-        <v>7.3847222222222229</v>
+        <v>8.0993055555555564</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,32 @@
       <c r="B40" s="1">
         <v>0.40555555555555556</v>
       </c>
+      <c r="C40" s="1">
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34652777777777777</v>
+      </c>
       <c r="E40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45542</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.75972222222222219</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="1"/>
+        <v>0.36805555555555552</v>
+      </c>
+      <c r="E41" t="s">
         <v>10</v>
       </c>
     </row>

--- a/journal_de_travail.xlsx
+++ b/journal_de_travail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\TB2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7395CF-5968-4E64-8453-1E58ED5DBA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514479AC-732E-4837-8E03-3BBBF808B858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +468,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D41" si="1">C3-B3</f>
+        <f t="shared" ref="D3:D43" si="1">C3-B3</f>
         <v>0.16666666666666669</v>
       </c>
       <c r="E3" t="s">
@@ -529,7 +529,7 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>1.7743055555555556</v>
+        <v>2.3451388888888887</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
       </c>
       <c r="I7" s="3">
         <f>SUM(I1:I5)</f>
-        <v>8.0993055555555564</v>
+        <v>8.6701388888888893</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1184,6 +1184,42 @@
         <v>0.36805555555555552</v>
       </c>
       <c r="E41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45516</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45548</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2409722222222222</v>
+      </c>
+      <c r="E43" t="s">
         <v>10</v>
       </c>
     </row>

--- a/journal_de_travail.xlsx
+++ b/journal_de_travail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\TB2\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\TB\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514479AC-732E-4837-8E03-3BBBF808B858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B41F76D-72F6-440D-BDCC-6B597EAD2B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25140" yWindow="2010" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +468,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D43" si="1">C3-B3</f>
+        <f t="shared" ref="D3:D46" si="1">C3-B3</f>
         <v>0.16666666666666669</v>
       </c>
       <c r="E3" t="s">
@@ -504,7 +504,7 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.54999999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>2.3451388888888887</v>
+        <v>2.5791666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
       </c>
       <c r="I7" s="3">
         <f>SUM(I1:I5)</f>
-        <v>8.6701388888888893</v>
+        <v>9.4541666666666675</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1221,6 +1221,60 @@
       </c>
       <c r="E43" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45551</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23402777777777789</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45552</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.75277777777777777</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.89930555555555547</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1465277777777777</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45554</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.84930555555555554</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="1"/>
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/journal_de_travail.xlsx
+++ b/journal_de_travail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\TB\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B41F76D-72F6-440D-BDCC-6B597EAD2B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C60ECD1-00C6-418B-8B08-AFC3E7C7187D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25140" yWindow="2010" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +468,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D46" si="1">C3-B3</f>
+        <f t="shared" ref="D3:D47" si="1">C3-B3</f>
         <v>0.16666666666666669</v>
       </c>
       <c r="E3" t="s">
@@ -529,7 +529,7 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>2.5791666666666666</v>
+        <v>2.8631944444444444</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
       </c>
       <c r="I7" s="3">
         <f>SUM(I1:I5)</f>
-        <v>9.4541666666666675</v>
+        <v>9.7381944444444457</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1275,6 +1275,24 @@
       </c>
       <c r="E46" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45555</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.72638888888888886</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28402777777777771</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/journal_de_travail.xlsx
+++ b/journal_de_travail.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\TB\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C60ECD1-00C6-418B-8B08-AFC3E7C7187D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C53F7FF-2372-474C-A69F-4033FFA9A8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
-    <sheet name="Utils" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -392,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +467,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D47" si="1">C3-B3</f>
+        <f t="shared" ref="D3:D49" si="1">C3-B3</f>
         <v>0.16666666666666669</v>
       </c>
       <c r="E3" t="s">
@@ -529,7 +528,7 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>2.8631944444444444</v>
+        <v>3.3354166666666667</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -572,7 +571,7 @@
       </c>
       <c r="I7" s="3">
         <f>SUM(I1:I5)</f>
-        <v>9.7381944444444457</v>
+        <v>10.210416666666667</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1292,6 +1291,42 @@
         <v>0.28402777777777771</v>
       </c>
       <c r="E47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45556</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="1"/>
+        <v>0.21875</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45557</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="E49" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1303,7 +1338,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{88B0857C-B8C6-49F2-B590-DD6F017D3688}">
           <x14:formula1>
-            <xm:f>Utils!$B$2:$B$6</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
@@ -1311,47 +1346,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439C75DC-391B-42D8-BD8F-042837A29DC7}">
-  <dimension ref="B2:B6"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="45.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>